--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,12 +135,36 @@
     <t>Legionella pneumophila serogroup 1 (organism)</t>
   </si>
   <si>
+    <t>113721003</t>
+  </si>
+  <si>
+    <t>Legionella gormanii (organism)</t>
+  </si>
+  <si>
+    <t>103467006</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 5 (organism)</t>
+  </si>
+  <si>
     <t>116379006</t>
   </si>
   <si>
     <t>Legionella maceachernii (organism)</t>
   </si>
   <si>
+    <t>18214000</t>
+  </si>
+  <si>
+    <t>Legionella anisa (organism)</t>
+  </si>
+  <si>
+    <t>103469009</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 7 (organism)</t>
+  </si>
+  <si>
     <t>450611004</t>
   </si>
   <si>
@@ -159,10 +183,28 @@
     <t>Legionella pneumophilia serogroup 10 (organism)</t>
   </si>
   <si>
+    <t>131324005</t>
+  </si>
+  <si>
+    <t>Legionella pneumophilia serogroup 12 (organism)</t>
+  </si>
+  <si>
     <t>103448007</t>
   </si>
   <si>
     <t>Legionella brunensis (organism)</t>
+  </si>
+  <si>
+    <t>103464004</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 2 (organism)</t>
+  </si>
+  <si>
+    <t>103468001</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 6 (organism)</t>
   </si>
   <si>
     <t>80897008</t>
@@ -446,7 +488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,15 +599,71 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Legionella maceachernii (organism)</t>
+  </si>
+  <si>
+    <t>131325006</t>
+  </si>
+  <si>
+    <t>Legionella pneumophilia serogroup 13 (organism)</t>
   </si>
   <si>
     <t>18214000</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,15 +661,23 @@
         <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-leg-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
